--- a/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningClocksPowerReport.xlsx
+++ b/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningClocksPowerReport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>Utilization</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF_BUFG</t>
+  </si>
+  <si>
+    <t>BUFG</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF_BUFG_inst (BUFG)</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>ap_clk_IBUF</t>
   </si>
 </sst>
 </file>
@@ -186,7 +201,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>6.422838778235018E-4</v>
+        <v>0.0017788336845114827</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -218,7 +233,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>6.422838778235018E-4</v>
+        <v>0.0017788336845114827</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -236,13 +251,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="n" s="7">
-        <v>458.0</v>
+        <v>462.0</v>
       </c>
       <c r="H3" t="n" s="7">
-        <v>256.0</v>
+        <v>142.0</v>
       </c>
       <c r="I3" t="n" s="2">
-        <v>1.7890629768371582</v>
+        <v>3.253520965576172</v>
       </c>
       <c r="J3" t="s" s="4">
         <v>13</v>
@@ -250,34 +265,130 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="8">
-        <v>6.422838778235018E-4</v>
+        <v>0.0015990337124094367</v>
       </c>
       <c r="B4" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D4" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="G4" t="n" s="7">
+        <v>460.0</v>
+      </c>
+      <c r="H4" t="n" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="I4" t="n" s="2">
+        <v>3.2857139110565186</v>
+      </c>
+      <c r="J4" t="s" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" outlineLevel="2">
+      <c r="A5" t="n" s="8">
+        <v>9.299999510403723E-5</v>
+      </c>
+      <c r="B5" t="s" s="4">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D5" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="G5" t="n" s="7">
+        <v>460.0</v>
+      </c>
+      <c r="H5" t="n" s="7">
+        <v>140.0</v>
+      </c>
+      <c r="I5" t="n" s="2">
+        <v>3.2857139110565186</v>
+      </c>
+      <c r="J5" t="s" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" outlineLevel="2">
+      <c r="A6" t="n" s="8">
+        <v>8.679999882588163E-5</v>
+      </c>
+      <c r="B6" t="s" s="4">
+        <v>18</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D6" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="G6" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I6" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="s" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" outlineLevel="2">
+      <c r="A7" t="n" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="B7" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s" s="4">
-        <v>11</v>
+      <c r="C7" t="n" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="D7" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="G7" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n" s="7">
+        <v>1.0</v>
+      </c>
+      <c r="I7" t="n" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="s" s="4">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
